--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.112020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.112020.xlsx_with_dialog_acts.xlsx
@@ -601,12 +601,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1063,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3793,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5729,12 +5729,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5943,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6237,12 +6237,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6657,12 +6657,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7077,12 +7077,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7203,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9345,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9891,12 +9891,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11789,12 +11789,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12251,12 +12251,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12965,12 +12965,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13301,12 +13301,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13721,12 +13721,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13965,12 +13965,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15093,12 +15093,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15493,12 +15493,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15533,12 +15533,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16093,12 +16093,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16133,12 +16133,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16493,12 +16493,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16773,12 +16773,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17093,12 +17093,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17293,12 +17293,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17413,12 +17413,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17933,12 +17933,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18657,12 +18657,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18737,12 +18737,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18777,12 +18777,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18817,12 +18817,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19057,12 +19057,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19177,12 +19177,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19577,12 +19577,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19817,12 +19817,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20017,12 +20017,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20217,12 +20217,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20417,12 +20417,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20657,12 +20657,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20937,12 +20937,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21217,12 +21217,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21257,12 +21257,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21297,12 +21297,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21377,12 +21377,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22017,12 +22017,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
